--- a/Dokumentacie/Plan/Plan.xlsx
+++ b/Dokumentacie/Plan/Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>OK</t>
   </si>
@@ -216,13 +216,16 @@
     <t>Výsledok môžete vidieť tu</t>
   </si>
   <si>
-    <t>T221</t>
-  </si>
-  <si>
     <t>Vytvorenie webovej stránky tímu</t>
   </si>
   <si>
     <t>Reálne trvanie (h)</t>
+  </si>
+  <si>
+    <t>T120</t>
+  </si>
+  <si>
+    <t>T210</t>
   </si>
 </sst>
 </file>
@@ -538,19 +541,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -592,6 +582,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -688,11 +691,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,7 +999,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>13</v>
@@ -1240,7 +1243,7 @@
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="C7" s="16" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>60</v>
@@ -1300,10 +1303,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
